--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://micromaxinfo-my.sharepoint.com/personal/sumeet_micromaxinfo_com/Documents/TFS/ecoderSTL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_sum\Desktop\esp-idf\Project\DevProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEFCDB4-936B-4BF3-8314-7AC0DCFB5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC84D486-C07F-43E8-BC6E-9A2B53F3976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ED99B9C4-30C5-472D-A68F-83EC9AC2BB05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{ED99B9C4-30C5-472D-A68F-83EC9AC2BB05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Balancing Zone</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>Counter Clock =&gt;</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -133,10 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -145,7 +149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB20B37-CAFC-4E91-BC10-3B1B38EA9E4F}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,255 +484,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5">
+      <c r="B2" s="4"/>
+      <c r="C2" s="2">
         <f t="shared" ref="C2:I2" si="0">D2-45</f>
         <v>-360</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <f t="shared" si="0"/>
         <v>-315</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <f t="shared" si="0"/>
         <v>-270</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <f t="shared" si="0"/>
         <v>-225</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <f t="shared" si="0"/>
         <v>-180</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <f t="shared" si="0"/>
         <v>-135</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f t="shared" si="0"/>
         <v>-90</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <f>K2-45</f>
         <v>-45</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <f>K2+45</f>
         <v>45</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="2">
         <f t="shared" ref="M2:S2" si="1">L2+45</f>
         <v>90</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="2">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="2">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="2">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="2">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="2">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="2">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2">
         <v>-1440</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <f>C3+(45*4)</f>
         <v>-1260</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:S3" si="2">D3+(45*4)</f>
         <v>-1080</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <f t="shared" si="2"/>
         <v>-900</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <f t="shared" si="2"/>
         <v>-720</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <f t="shared" si="2"/>
         <v>-540</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" si="2"/>
         <v>-360</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <f t="shared" si="2"/>
         <v>-180</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="2">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="2">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="2">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="2">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="2">
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="2">
         <f t="shared" si="2"/>
         <v>1260</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="2">
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -741,4 +756,361 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F085F-28AF-4393-B235-167909754678}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="19" width="5.5703125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:I2" si="0">D2-45</f>
+        <v>-360</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" si="0"/>
+        <v>-315</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" si="0"/>
+        <v>-270</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" si="0"/>
+        <v>-225</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
+        <v>-180</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" si="0"/>
+        <v>-135</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="J2" s="2">
+        <f>K2-45</f>
+        <v>-45</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <f>K2+45</f>
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2:S2" si="1">L2+45</f>
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2">
+        <v>-1440</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3+(45*4)</f>
+        <v>-1260</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:S3" si="2">D3+(45*4)</f>
+        <v>-1080</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="2"/>
+        <v>-900</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="2"/>
+        <v>-720</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="2"/>
+        <v>-540</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="2"/>
+        <v>-360</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="2"/>
+        <v>-180</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="2"/>
+        <v>1080</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <f>F3+720</f>
+        <v>-180</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <f>F8*-1</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <f>G13-160</f>
+        <v>-880</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-720</v>
+      </c>
+      <c r="H13" s="1">
+        <f>G13+160</f>
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f>G18-160</f>
+        <v>560</v>
+      </c>
+      <c r="G18" s="1">
+        <v>720</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18+160</f>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>160</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>